--- a/biology/Zoologie/Erebia/Erebia.xlsx
+++ b/biology/Zoologie/Erebia/Erebia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia est un genre holarctique de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 Il regroupe une centaine d'espèces, dont beaucoup sont associées aux milieux froids : massifs montagneux et régions arctiques.
@@ -513,20 +525,22 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Erebia a été décrit par Johan Wilhelm Dalman en 1816.
 Synonymes : 
-Syngea Hübner, [1819]
-Epigea Hübner, [1819]
-Phorcis Hübner, [1819]
-Marica Hübner, [1819]
-Gorgo Hübner, [1819]
+Syngea Hübner, 
+Epigea Hübner, 
+Phorcis Hübner, 
+Marica Hübner, 
+Gorgo Hübner, 
 Atercoloratus Bang-Haas, 1938
 Triariia Verity, 1953
 Truncaefalcia Verity, 1953
 Medusia Verity, 1953
-Simplicia Verity, 1953[1].</t>
+Simplicia Verity, 1953.</t>
         </is>
       </c>
     </row>
@@ -554,7 +568,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Erebia aethiopellus (Hoffmannsegg, 1806) — Moiré piémontais ; dans le Sud-Ouest des Alpes.
 Erebia aethiops (Esper, 1777) — Moiré sylvicole ou Grand nègre.
@@ -565,7 +581,7 @@
 Erebia ajanensis arsenjevi Kurentzov, 1950 ;
 Erebia ajanensis kosterini P. Gorbunov, Korshunov &amp; Dubatolov, 1995 ;
 Erebia alberganus (Prunner, 1798) — Moiré lancéolé ; dans le centre de l'Europe.
-Erebia alberganus phorcys (Freyer, [1836])
+Erebia alberganus phorcys (Freyer, )
 Erebia alcmena Grum-Grshimailo, 1891. Au Tibet, dans l'ouest de la Chine et au Japon.
 Erebia alcmena minschani Bang-Haas ;
 Erebia alini (Bang-Haas, 1937)
@@ -703,7 +719,7 @@
 Erebia nivalis Lorkovic &amp; de Lesse, 1954 — Moiré du nardet ; dans les Alpes.
 Erebia occulta Roos &amp; Kimmich, 1983. En Alaska, dans le Canada arctique et l'extrême nord-est de l'Asie.
 Erebia ocnus (Eversmann, 1843).
-Erebia ocnus tianschanica Heyne, [1894]
+Erebia ocnus tianschanica Heyne, 
 Erebia oeme (Hübner, 1804) — Moiré des luzules.
 Erebia orientalis Elwes, 1900 ; ou Erebia epiphron orientalis. Dans le sud-est de l'Europe.
 Erebia ottomana Herrich-Schäffer, 1847 — Moiré ottoman ; dans les Alpes, en Grèce, Bulgarie et Asie Mineure.
